--- a/ETCrescue/H1299/H1299_Met-rescue/12W_CC_exp/merged_1.xlsx
+++ b/ETCrescue/H1299/H1299_Met-rescue/12W_CC_exp/merged_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Desktop/12W_CC_exp_met/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/lab-work/ETCrescue/H1299/H1299_Met-rescue/12W_CC_exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D325188-C74C-1541-A8EB-854054A80D24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC33F3C4-6C1F-6842-9167-03438EE119EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="1800" windowWidth="28580" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="220" yWindow="2000" windowWidth="28580" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="260">
   <si>
     <t>Sample ID</t>
   </si>
@@ -809,6 +809,9 @@
   </si>
   <si>
     <t>Cell_line</t>
+  </si>
+  <si>
+    <t>Prlfr vs size</t>
   </si>
 </sst>
 </file>
@@ -886,7 +889,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -900,6 +903,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2123,6 +2127,574 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$205</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ser</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$206:$H$221</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2.0478081347272522E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20931426115296423</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2587191635505185E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85601943811458714</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13562045525696445</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.246490687289496</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33737316769005243</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50414759069028414</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16506125675802072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.24929232839138046</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.17855654274164126</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75217508315151249</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7.5136718779850745E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.10179192372185626</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.4012678127687783E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.56726648359729037</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$206:$I$221</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>15037.833333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12815.333333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15027.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7480.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14384.833333333334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10896.166666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10910.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9901.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-31AA-3046-B7F0-6CFEF838FB1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$205</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NoSer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$206:$H$221</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2.0478081347272522E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20931426115296423</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2587191635505185E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85601943811458714</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13562045525696445</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.246490687289496</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33737316769005243</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50414759069028414</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16506125675802072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.24929232839138046</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.17855654274164126</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75217508315151249</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7.5136718779850745E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.10179192372185626</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.4012678127687783E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.56726648359729037</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$206:$J$221</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="8">
+                  <c:v>13878</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11077.333333333334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10371.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8808.1666666666661</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16941.333333333332</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15070.833333333334</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11740.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9513.3333333333339</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-31AA-3046-B7F0-6CFEF838FB1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1655668912"/>
+        <c:axId val="1655671264"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1655668912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.9"/>
+          <c:min val="-0.15000000000000002"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1655671264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1655671264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="17500"/>
+          <c:min val="7000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1655668912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2204,6 +2776,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3791,6 +4403,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3896,6 +5024,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B76B14B4-4BDF-C1B2-6964-7DBD8D4EA09E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4225,10 +5389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V198"/>
+  <dimension ref="A1:V221"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="D199" zoomScale="113" workbookViewId="0">
+      <selection activeCell="I226" sqref="I226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5673,7 +6837,7 @@
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="S37" s="7" t="s">
+      <c r="S37" s="8" t="s">
         <v>247</v>
       </c>
       <c r="T37" t="s">
@@ -5738,7 +6902,7 @@
         <f>LOG(P38,2)/O38</f>
         <v>4.6234220021942621E-2</v>
       </c>
-      <c r="S38" s="7"/>
+      <c r="S38" s="8"/>
       <c r="T38" t="s">
         <v>239</v>
       </c>
@@ -5801,7 +6965,7 @@
         <f t="shared" ref="Q39:Q40" si="23">LOG(P39,2)/O39</f>
         <v>7.5587725511516102E-2</v>
       </c>
-      <c r="S39" s="7"/>
+      <c r="S39" s="8"/>
       <c r="T39" t="s">
         <v>240</v>
       </c>
@@ -5864,7 +7028,7 @@
         <f t="shared" si="23"/>
         <v>8.9715711229352763E-2</v>
       </c>
-      <c r="S40" s="7"/>
+      <c r="S40" s="8"/>
       <c r="T40" t="s">
         <v>241</v>
       </c>
@@ -5895,7 +7059,7 @@
         <f t="shared" ref="L41" si="25">AVERAGE(L38:L40)</f>
         <v>13876.333333333334</v>
       </c>
-      <c r="S41" s="7"/>
+      <c r="S41" s="8"/>
       <c r="T41" t="s">
         <v>243</v>
       </c>
@@ -5926,7 +7090,7 @@
         <f>AVERAGE(Q33,Q34,Q35,Q38,Q39,Q40)</f>
         <v>7.2587191635505185E-2</v>
       </c>
-      <c r="S42" s="7"/>
+      <c r="S42" s="8"/>
       <c r="T42" t="s">
         <v>244</v>
       </c>
@@ -5938,7 +7102,7 @@
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="S43" s="7"/>
+      <c r="S43" s="8"/>
       <c r="T43" t="s">
         <v>245</v>
       </c>
@@ -6001,7 +7165,7 @@
         <f>LOG(P44,2)/O44</f>
         <v>0.86691961351605862</v>
       </c>
-      <c r="S44" s="7"/>
+      <c r="S44" s="8"/>
       <c r="T44" t="s">
         <v>246</v>
       </c>
@@ -6064,7 +7228,7 @@
         <f t="shared" ref="Q45:Q46" si="28">LOG(P45,2)/O45</f>
         <v>0.85252968313293298</v>
       </c>
-      <c r="S45" s="7" t="s">
+      <c r="S45" s="8" t="s">
         <v>249</v>
       </c>
       <c r="T45" t="s">
@@ -6129,7 +7293,7 @@
         <f t="shared" si="28"/>
         <v>0.82684174736143279</v>
       </c>
-      <c r="S46" s="7"/>
+      <c r="S46" s="8"/>
       <c r="T46" t="s">
         <v>243</v>
       </c>
@@ -6160,7 +7324,7 @@
         <f t="shared" ref="L47" si="30">AVERAGE(L44:L46)</f>
         <v>6955</v>
       </c>
-      <c r="S47" s="7"/>
+      <c r="S47" s="8"/>
       <c r="T47" t="s">
         <v>244</v>
       </c>
@@ -6172,7 +7336,7 @@
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="S48" s="7"/>
+      <c r="S48" s="8"/>
       <c r="T48" t="s">
         <v>241</v>
       </c>
@@ -6235,7 +7399,7 @@
         <f>LOG(P49,2)/O49</f>
         <v>0.86107516402230089</v>
       </c>
-      <c r="S49" s="7"/>
+      <c r="S49" s="8"/>
       <c r="T49" t="s">
         <v>247</v>
       </c>
@@ -6298,7 +7462,7 @@
         <f t="shared" ref="Q50:Q51" si="32">LOG(P50,2)/O50</f>
         <v>0.86330555337381676</v>
       </c>
-      <c r="S50" s="7"/>
+      <c r="S50" s="8"/>
       <c r="T50" t="s">
         <v>248</v>
       </c>
@@ -6361,7 +7525,7 @@
         <f t="shared" si="32"/>
         <v>0.86544486728098091</v>
       </c>
-      <c r="S51" s="7"/>
+      <c r="S51" s="8"/>
       <c r="T51" t="s">
         <v>245</v>
       </c>
@@ -6392,7 +7556,7 @@
         <f t="shared" ref="L52" si="34">AVERAGE(L49:L51)</f>
         <v>6761</v>
       </c>
-      <c r="S52" s="7"/>
+      <c r="S52" s="8"/>
       <c r="T52" t="s">
         <v>246</v>
       </c>
@@ -11261,6 +12425,198 @@
       <c r="Q198" s="5">
         <f>AVERAGE(Q189,Q190,Q191,Q194,Q195,Q196)</f>
         <v>0.56726648359729037</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H203" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H205" t="s">
+        <v>232</v>
+      </c>
+      <c r="I205" t="s">
+        <v>247</v>
+      </c>
+      <c r="J205" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G206" t="s">
+        <v>238</v>
+      </c>
+      <c r="H206">
+        <v>2.0478081347272522E-2</v>
+      </c>
+      <c r="I206">
+        <v>15037.833333333334</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G207" t="s">
+        <v>239</v>
+      </c>
+      <c r="H207">
+        <v>0.20931426115296423</v>
+      </c>
+      <c r="I207">
+        <v>12815.333333333334</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G208" t="s">
+        <v>240</v>
+      </c>
+      <c r="H208">
+        <v>7.2587191635505185E-2</v>
+      </c>
+      <c r="I208">
+        <v>15027.5</v>
+      </c>
+    </row>
+    <row r="209" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G209" t="s">
+        <v>241</v>
+      </c>
+      <c r="H209">
+        <v>0.85601943811458714</v>
+      </c>
+      <c r="I209">
+        <v>7480.666666666667</v>
+      </c>
+    </row>
+    <row r="210" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G210" t="s">
+        <v>243</v>
+      </c>
+      <c r="H210">
+        <v>0.13562045525696445</v>
+      </c>
+      <c r="I210">
+        <v>14384.833333333334</v>
+      </c>
+    </row>
+    <row r="211" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G211" t="s">
+        <v>244</v>
+      </c>
+      <c r="H211">
+        <v>0.246490687289496</v>
+      </c>
+      <c r="I211">
+        <v>10896.166666666666</v>
+      </c>
+    </row>
+    <row r="212" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G212" t="s">
+        <v>245</v>
+      </c>
+      <c r="H212">
+        <v>0.33737316769005243</v>
+      </c>
+      <c r="I212">
+        <v>10910.666666666666</v>
+      </c>
+    </row>
+    <row r="213" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G213" t="s">
+        <v>246</v>
+      </c>
+      <c r="H213">
+        <v>0.50414759069028414</v>
+      </c>
+      <c r="I213">
+        <v>9901.5</v>
+      </c>
+    </row>
+    <row r="214" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G214" t="s">
+        <v>238</v>
+      </c>
+      <c r="H214">
+        <v>0.16506125675802072</v>
+      </c>
+      <c r="J214">
+        <v>13878</v>
+      </c>
+    </row>
+    <row r="215" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G215" t="s">
+        <v>243</v>
+      </c>
+      <c r="H215">
+        <v>0.24929232839138046</v>
+      </c>
+      <c r="J215">
+        <v>11077.333333333334</v>
+      </c>
+    </row>
+    <row r="216" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G216" t="s">
+        <v>244</v>
+      </c>
+      <c r="H216">
+        <v>0.17855654274164126</v>
+      </c>
+      <c r="J216">
+        <v>10371.5</v>
+      </c>
+    </row>
+    <row r="217" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G217" t="s">
+        <v>241</v>
+      </c>
+      <c r="H217">
+        <v>0.75217508315151249</v>
+      </c>
+      <c r="J217">
+        <v>8808.1666666666661</v>
+      </c>
+    </row>
+    <row r="218" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G218" t="s">
+        <v>247</v>
+      </c>
+      <c r="H218">
+        <v>-7.5136718779850745E-2</v>
+      </c>
+      <c r="J218">
+        <v>16941.333333333332</v>
+      </c>
+    </row>
+    <row r="219" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G219" t="s">
+        <v>248</v>
+      </c>
+      <c r="H219">
+        <v>0.10179192372185626</v>
+      </c>
+      <c r="J219">
+        <v>15070.833333333334</v>
+      </c>
+    </row>
+    <row r="220" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G220" t="s">
+        <v>245</v>
+      </c>
+      <c r="H220">
+        <v>4.4012678127687783E-2</v>
+      </c>
+      <c r="J220">
+        <v>11740.666666666666</v>
+      </c>
+    </row>
+    <row r="221" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G221" t="s">
+        <v>246</v>
+      </c>
+      <c r="H221">
+        <v>0.56726648359729037</v>
+      </c>
+      <c r="J221">
+        <v>9513.3333333333339</v>
       </c>
     </row>
   </sheetData>
@@ -11277,7 +12633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53169D4F-CC11-E148-909C-324C6C630BAF}">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
